--- a/LR3/table_1_7.xlsx
+++ b/LR3/table_1_7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A3F013-03E9-4680-91BC-D0A506997B05}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7368C681-FA37-4212-A8B2-D83FF3E8D54A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B1D73EF2-5023-4766-B8C1-44EEE9E4BD11}"/>
   </bookViews>
@@ -33,30 +33,12 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Тариф</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Штрафы, руб</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
     <t>Абделазиз</t>
   </si>
   <si>
@@ -165,19 +147,37 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Общая сумма</t>
-  </si>
-  <si>
-    <t>Средняя площадь</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
-    <t>Пени за день, руб</t>
+    <t>Тариф, руб./кв.м</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штрафы, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A2F04F-7585-485F-9911-777593B2D201}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,31 +579,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -731,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
@@ -851,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
@@ -931,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
@@ -1011,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1051,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1131,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
@@ -1211,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
@@ -1251,7 +1251,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1291,7 +1291,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
@@ -1331,7 +1331,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1371,7 +1371,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1451,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1491,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1531,7 +1531,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1571,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1611,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1651,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1691,7 +1691,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1731,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1771,7 +1771,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1811,7 +1811,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1851,7 +1851,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1891,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -1931,7 +1931,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -1971,7 +1971,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2011,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="4">
         <f>SUM(K:K)</f>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <f>AVERAGE(C:C)</f>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <f>MAX(H:H)</f>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <f>MAX(K:K)</f>

--- a/LR3/table_1_7.xlsx
+++ b/LR3/table_1_7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9248099B-07AA-422A-8130-85E0520DB8F9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C641CA6-8619-459F-B972-E2DA4D9E11A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15915" windowHeight="11865" xr2:uid="{27CF1491-FF6D-420A-952E-CC647AAACBE4}"/>
   </bookViews>
@@ -213,16 +213,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A477A042-8455-409E-8AAA-8AB83E063A5F}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,77 +609,77 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E3" s="3">
         <f>D3*C3</f>
         <v>539.00000000000011</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <f>E3+J3</f>
         <v>539.00000000000011</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>535.15000000000009</v>
       </c>
-      <c r="F4" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J38" si="1">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K38" si="2">E4+J4</f>
         <v>535.15000000000009</v>
       </c>
@@ -685,37 +688,37 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
         <v>69</v>
       </c>
-      <c r="D5" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E5" s="3">
         <f>D5*C5</f>
         <v>531.30000000000007</v>
       </c>
-      <c r="F5" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>531.30000000000007</v>
       </c>
@@ -724,37 +727,37 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>527.45000000000005</v>
       </c>
-      <c r="F6" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>527.45000000000005</v>
       </c>
@@ -763,37 +766,37 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>523.6</v>
       </c>
-      <c r="F7" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>523.6</v>
       </c>
@@ -802,37 +805,37 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>519.75000000000011</v>
       </c>
-      <c r="F8" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>519.75000000000011</v>
       </c>
@@ -841,37 +844,37 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>515.90000000000009</v>
       </c>
-      <c r="F9" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>515.90000000000009</v>
       </c>
@@ -880,37 +883,37 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>512.05000000000007</v>
       </c>
-      <c r="F10" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>512.05000000000007</v>
       </c>
@@ -919,37 +922,37 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>508.20000000000005</v>
       </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>508.20000000000005</v>
       </c>
@@ -958,38 +961,38 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>504.35000000000008</v>
       </c>
-      <c r="F12" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <f>ABS(G12-F12)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>514.35000000000014</v>
       </c>
@@ -998,38 +1001,38 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>500.50000000000006</v>
       </c>
-      <c r="F13" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f t="shared" ref="H13:H38" si="3">ABS(G13-F13)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>520.5</v>
       </c>
@@ -1038,38 +1041,38 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>496.65000000000009</v>
       </c>
-      <c r="F14" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>526.65000000000009</v>
       </c>
@@ -1078,38 +1081,38 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>492.80000000000007</v>
       </c>
-      <c r="F15" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="3">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>532.80000000000007</v>
       </c>
@@ -1118,38 +1121,38 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>488.95000000000005</v>
       </c>
-      <c r="F16" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>538.95000000000005</v>
       </c>
@@ -1158,38 +1161,38 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>485.10000000000008</v>
       </c>
-      <c r="F17" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>545.10000000000014</v>
       </c>
@@ -1198,38 +1201,38 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>481.25000000000006</v>
       </c>
-      <c r="F18" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="3">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>551.25</v>
       </c>
@@ -1238,38 +1241,38 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>477.40000000000009</v>
       </c>
-      <c r="F19" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>557.40000000000009</v>
       </c>
@@ -1278,38 +1281,38 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>473.55000000000007</v>
       </c>
-      <c r="F20" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
         <v>563.55000000000007</v>
       </c>
@@ -1318,38 +1321,38 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>469.70000000000005</v>
       </c>
-      <c r="F21" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
         <v>569.70000000000005</v>
       </c>
@@ -1358,38 +1361,38 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>465.85000000000008</v>
       </c>
-      <c r="F22" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>575.85000000000014</v>
       </c>
@@ -1398,38 +1401,38 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>462.00000000000006</v>
       </c>
-      <c r="F23" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>582</v>
       </c>
@@ -1438,38 +1441,38 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>458.15000000000009</v>
       </c>
-      <c r="F24" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <f t="shared" si="2"/>
         <v>588.15000000000009</v>
       </c>
@@ -1478,38 +1481,38 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>454.30000000000007</v>
       </c>
-      <c r="F25" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="3">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <f t="shared" si="2"/>
         <v>594.30000000000007</v>
       </c>
@@ -1518,38 +1521,38 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>450.45000000000005</v>
       </c>
-      <c r="F26" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="3">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <f t="shared" si="2"/>
         <v>600.45000000000005</v>
       </c>
@@ -1558,38 +1561,38 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>446.60000000000008</v>
       </c>
-      <c r="F27" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <f t="shared" si="2"/>
         <v>606.60000000000014</v>
       </c>
@@ -1598,38 +1601,38 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>442.75000000000006</v>
       </c>
-      <c r="F28" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <f t="shared" si="2"/>
         <v>612.75</v>
       </c>
@@ -1638,38 +1641,38 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>438.90000000000003</v>
       </c>
-      <c r="F29" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="3">
         <f t="shared" si="2"/>
         <v>618.90000000000009</v>
       </c>
@@ -1678,38 +1681,38 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>435.05000000000007</v>
       </c>
-      <c r="F30" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="3">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <f t="shared" si="2"/>
         <v>625.05000000000007</v>
       </c>
@@ -1718,38 +1721,38 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="0"/>
         <v>431.20000000000005</v>
       </c>
-      <c r="F31" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <f t="shared" si="2"/>
         <v>631.20000000000005</v>
       </c>
@@ -1758,38 +1761,38 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
         <v>427.35000000000008</v>
       </c>
-      <c r="F32" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
         <f t="shared" si="2"/>
         <v>637.35000000000014</v>
       </c>
@@ -1798,38 +1801,38 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
         <v>423.50000000000006</v>
       </c>
-      <c r="F33" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3">
         <f t="shared" si="2"/>
         <v>643.5</v>
       </c>
@@ -1838,38 +1841,38 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f>1.1*A1</f>
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="3">
+        <f>1.1*A1</f>
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="E34" s="3">
         <f t="shared" si="0"/>
         <v>419.65000000000003</v>
       </c>
-      <c r="F34" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="3">
         <f t="shared" si="2"/>
         <v>649.65000000000009</v>
       </c>
@@ -1878,38 +1881,38 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <f>(A1/2)*1.1</f>
         <v>3.8500000000000005</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
         <f t="shared" si="0"/>
         <v>207.90000000000003</v>
       </c>
-      <c r="F35" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="3">
         <f t="shared" si="2"/>
         <v>447.90000000000003</v>
       </c>
@@ -1918,38 +1921,38 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <f>(A1/2)*1.1</f>
         <v>3.8500000000000005</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
         <f t="shared" si="0"/>
         <v>205.97500000000002</v>
       </c>
-      <c r="F36" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="3">
         <f t="shared" si="2"/>
         <v>455.97500000000002</v>
       </c>
@@ -1958,38 +1961,38 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <f>(A1/2)*1.1</f>
         <v>3.8500000000000005</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
         <f t="shared" si="0"/>
         <v>204.05000000000004</v>
       </c>
-      <c r="F37" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="3">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="3">
         <f t="shared" si="2"/>
         <v>464.05000000000007</v>
       </c>
@@ -1998,38 +2001,38 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <f>(A1/2)*1.1</f>
         <v>3.8500000000000005</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <f t="shared" si="0"/>
         <v>202.12500000000003</v>
       </c>
-      <c r="F38" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <f t="shared" si="2"/>
         <v>472.125</v>
       </c>
@@ -2038,7 +2041,7 @@
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f>ROUNDUP(SUM(K3:K38),0)</f>
         <v>19939</v>
       </c>

--- a/LR3/table_1_7.xlsx
+++ b/LR3/table_1_7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7368C681-FA37-4212-A8B2-D83FF3E8D54A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ADAFE9-5ED1-4C28-AECF-DADFF46FB360}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B1D73EF2-5023-4766-B8C1-44EEE9E4BD11}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -144,27 +141,15 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
-    <t>Просрочка, дней.</t>
-  </si>
-  <si>
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Штрафы, руб.</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
@@ -178,6 +163,21 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
@@ -548,15 +548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A2F04F-7585-485F-9911-777593B2D201}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
@@ -576,34 +577,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -611,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -648,12 +649,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -668,6 +671,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
@@ -675,6 +679,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -688,12 +693,14 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -708,6 +715,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -715,6 +723,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -728,12 +737,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -748,6 +759,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -755,6 +767,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -768,12 +781,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
@@ -788,6 +803,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -795,6 +811,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -808,12 +825,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
@@ -828,6 +847,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -835,6 +855,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -848,12 +869,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
@@ -868,6 +891,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -875,6 +899,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -888,12 +913,14 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
@@ -908,6 +935,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -915,6 +943,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -928,12 +957,14 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
@@ -948,17 +979,19 @@
         <v>44813</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(G11&gt;=F11, G11 - F11,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f>H11*I11</f>
         <v>0</v>
       </c>
       <c r="K11" s="1">
@@ -968,12 +1001,14 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
@@ -988,6 +1023,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -995,6 +1031,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1008,12 +1045,14 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
@@ -1028,6 +1067,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1035,6 +1075,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1048,12 +1089,14 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
@@ -1068,6 +1111,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1075,6 +1119,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1088,12 +1133,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
@@ -1108,6 +1155,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1115,6 +1163,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1128,12 +1177,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
@@ -1148,6 +1199,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1155,6 +1207,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1168,12 +1221,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
@@ -1188,6 +1243,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1195,6 +1251,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1208,12 +1265,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
@@ -1228,6 +1287,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1235,6 +1295,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1248,12 +1309,14 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
@@ -1268,6 +1331,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1275,6 +1339,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1288,12 +1353,14 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
@@ -1308,6 +1375,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1315,6 +1383,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1328,12 +1397,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
@@ -1348,6 +1419,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1355,6 +1427,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1368,12 +1441,14 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
@@ -1388,6 +1463,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1395,6 +1471,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1408,12 +1485,14 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
@@ -1428,6 +1507,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1435,6 +1515,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1448,12 +1529,14 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
@@ -1468,6 +1551,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1475,6 +1559,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1488,12 +1573,14 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
@@ -1508,6 +1595,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1515,6 +1603,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1528,12 +1617,14 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
@@ -1548,6 +1639,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1555,6 +1647,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1568,12 +1661,14 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
@@ -1588,6 +1683,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1595,6 +1691,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1608,12 +1705,14 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
@@ -1628,6 +1727,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1635,6 +1735,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1648,12 +1749,14 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
@@ -1668,6 +1771,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1675,6 +1779,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1688,12 +1793,14 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
@@ -1708,6 +1815,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1715,6 +1823,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1728,12 +1837,14 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
@@ -1748,6 +1859,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1755,6 +1867,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1768,12 +1881,14 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
@@ -1788,6 +1903,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1795,6 +1911,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1808,12 +1925,14 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
@@ -1828,6 +1947,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1835,6 +1955,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1848,12 +1969,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
@@ -1868,6 +1991,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1875,6 +1999,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1888,26 +2013,29 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000011</v>
+        <f>D3/2</f>
+        <v>3.8500000000000005</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>415.80000000000007</v>
+        <v>207.90000000000003</v>
       </c>
       <c r="F35" s="2">
         <v>44813</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1915,6 +2043,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1923,31 +2052,34 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>655.80000000000007</v>
+        <v>447.90000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000011</v>
+        <f>D3/2</f>
+        <v>3.8500000000000005</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>411.95000000000005</v>
+        <v>205.97500000000002</v>
       </c>
       <c r="F36" s="2">
         <v>44813</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -1955,6 +2087,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -1963,31 +2096,34 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>661.95</v>
+        <v>455.97500000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000011</v>
+        <f>D3/2</f>
+        <v>3.8500000000000005</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>408.10000000000008</v>
+        <v>204.05000000000004</v>
       </c>
       <c r="F37" s="2">
         <v>44813</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -1995,6 +2131,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2003,31 +2140,34 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>668.10000000000014</v>
+        <v>464.05000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000011</v>
+        <f>D3/2</f>
+        <v>3.8500000000000005</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>404.25000000000006</v>
+        <v>202.12500000000003</v>
       </c>
       <c r="F38" s="2">
         <v>44813</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2035,6 +2175,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2043,43 +2184,43 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="4"/>
-        <v>674.25</v>
+        <v>472.125</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4">
         <f>SUM(K:K)</f>
-        <v>20758.5</v>
+        <v>19938.45</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <f>AVERAGE(C:C)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <f>MAX(H:H)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <f>MAX(K:K)</f>
-        <v>674.25</v>
+        <f>MAX(K3:K38)</f>
+        <v>649.65000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_7.xlsx
+++ b/LR3/table_1_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ADAFE9-5ED1-4C28-AECF-DADFF46FB360}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B280080-EC0A-4FA2-95CA-EBBABF0BE3AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B1D73EF2-5023-4766-B8C1-44EEE9E4BD11}"/>
   </bookViews>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A2F04F-7585-485F-9911-777593B2D201}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>7.7000000000000011</v>
       </c>
       <c r="E4" s="1">
@@ -2188,37 +2188,37 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="4">
-        <f>SUM(K:K)</f>
-        <v>19938.45</v>
+      <c r="C40" s="4">
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>19938</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <f>MAX(K3:K38)</f>
         <v>649.65000000000009</v>
       </c>

--- a/LR3/table_1_7.xlsx
+++ b/LR3/table_1_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B280080-EC0A-4FA2-95CA-EBBABF0BE3AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E272B22-34B8-4AB2-A3B6-30F2D9FC7C2A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B1D73EF2-5023-4766-B8C1-44EEE9E4BD11}"/>
   </bookViews>
@@ -162,9 +162,6 @@
     <t>Максимальный срок просрочки, дней.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Кузин</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -548,15 +548,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A2F04F-7585-485F-9911-777593B2D201}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
@@ -595,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>41</v>
@@ -2105,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_7.xlsx
+++ b/LR3/table_1_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E272B22-34B8-4AB2-A3B6-30F2D9FC7C2A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94C88F-5260-45E5-96AC-3E5051B7D8A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B1D73EF2-5023-4766-B8C1-44EEE9E4BD11}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней.</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A2F04F-7585-485F-9911-777593B2D201}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="16.75" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
     <col min="11" max="11" width="9.625" customWidth="1"/>
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>39</v>
@@ -595,13 +595,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>41</v>
@@ -2105,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_7.xlsx
+++ b/LR3/table_1_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B94C88F-5260-45E5-96AC-3E5051B7D8A7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87230CA-4BC7-4646-95F2-E52C4E397561}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{B1D73EF2-5023-4766-B8C1-44EEE9E4BD11}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Городилова</t>
   </si>
   <si>
-    <t xml:space="preserve">Девятов </t>
-  </si>
-  <si>
     <t>Исламов</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Девятов</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A2F04F-7585-485F-9911-777593B2D201}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,16 +577,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -595,16 +595,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&gt;=F3, G3 - F3,0)</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -668,6 +668,7 @@
         <v>535.15000000000009</v>
       </c>
       <c r="F4" s="2">
+        <f>$F$3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="2">
@@ -675,7 +676,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;=F4, G4 - F4,0)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -712,10 +713,11 @@
         <v>531.30000000000007</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -723,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
+        <f t="shared" ref="I5:I38" si="9">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -756,10 +758,11 @@
         <v>527.45000000000005</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -800,10 +803,11 @@
         <v>523.6</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -811,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -844,10 +848,11 @@
         <v>519.75000000000011</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -855,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -888,10 +893,11 @@
         <v>515.90000000000009</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -932,10 +938,11 @@
         <v>512.05000000000007</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -943,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -961,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -976,18 +983,19 @@
         <v>508.20000000000005</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(G11&gt;=F11, G11 - F11,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1005,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1020,10 +1028,11 @@
         <v>504.35000000000008</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1031,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1049,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1064,10 +1073,11 @@
         <v>500.50000000000006</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1075,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1093,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1108,10 +1118,11 @@
         <v>496.65000000000009</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1119,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1137,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1152,10 +1163,11 @@
         <v>492.80000000000007</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1163,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1181,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1196,10 +1208,11 @@
         <v>488.95000000000005</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1207,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1225,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1240,10 +1253,11 @@
         <v>485.10000000000008</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1251,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1269,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1284,10 +1298,11 @@
         <v>481.25000000000006</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1295,7 +1310,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1313,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1328,10 +1343,11 @@
         <v>477.40000000000009</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1339,7 +1355,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1357,7 +1373,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1372,10 +1388,11 @@
         <v>473.55000000000007</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1383,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1401,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1416,10 +1433,11 @@
         <v>469.70000000000005</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1427,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1445,7 +1463,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1460,10 +1478,11 @@
         <v>465.85000000000008</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1471,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1489,7 +1508,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1504,10 +1523,11 @@
         <v>462.00000000000006</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1515,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1533,7 +1553,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1548,10 +1568,11 @@
         <v>458.15000000000009</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1559,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1577,7 +1598,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1592,10 +1613,11 @@
         <v>454.30000000000007</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1603,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1621,7 +1643,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1636,10 +1658,11 @@
         <v>450.45000000000005</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1647,7 +1670,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1665,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1680,10 +1703,11 @@
         <v>446.60000000000008</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1691,7 +1715,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1709,7 +1733,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1724,10 +1748,11 @@
         <v>442.75000000000006</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1735,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1753,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1768,10 +1793,11 @@
         <v>438.90000000000003</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1779,7 +1805,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1797,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1812,10 +1838,11 @@
         <v>435.05000000000007</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1823,7 +1850,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1841,7 +1868,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1856,10 +1883,11 @@
         <v>431.20000000000005</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1867,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1885,7 +1913,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1900,10 +1928,11 @@
         <v>427.35000000000008</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1911,7 +1940,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1929,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1944,10 +1973,11 @@
         <v>423.50000000000006</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1955,7 +1985,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1973,7 +2003,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1988,10 +2018,11 @@
         <v>419.65000000000003</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1999,7 +2030,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -2017,7 +2048,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2032,10 +2063,11 @@
         <v>207.90000000000003</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2043,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2061,7 +2093,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2076,10 +2108,11 @@
         <v>205.97500000000002</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2087,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2105,7 +2138,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2120,10 +2153,11 @@
         <v>204.05000000000004</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2131,7 +2165,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2149,7 +2183,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2164,10 +2198,11 @@
         <v>202.12500000000003</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2175,7 +2210,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2189,7 +2224,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="4">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2198,7 +2233,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2207,7 +2242,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2216,7 +2251,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>
